--- a/rag-data/providers/Fatima/excel/metadata.xlsx
+++ b/rag-data/providers/Fatima/excel/metadata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,54 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Service provider</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>document</t>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>services_summary</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>charges</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fatima</t>
+          <t>Fatima Test Provider</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AI Development Services – Fatima Fatima is a professional AI developer providing end-to-end AI solutions, including chatbots, automation apps, predictive analytics systems, and custom machine learning tools. Services Offered Custom Chatbot Development (RAG, LLM-Based) AI Automation Integrations (API-based, workflow automation) Predictive Analytics &amp; Data Modeling Fine-tuning and Prompt Engineering AI-powered dashboard integrations Consultation on AI architecture and deployment Timings &amp; Availability Fatima is available Monday to Saturday from 10 AM – 7 PM (GMT+5). Urgent consultations may be scheduled outside regular hours upon request. Charges Initial Consultation: Free (15 minutes) AI Chatbot Development: Starting from $200 Automation Workflows: $50–$150 depending on complexity Custom ML Models: Starting from $300 Monthly Maintenance: $30–$70 Frequently Asked Questions (FAQ) 1. How long does it take to develop an AI chatbot? Typical development time is 3–7 days depending on requirements such as integrations, UI, and model configuration. 2. Do you provide deployment services? Yes. Deployment is offered for web apps, cloud environments, and messaging platforms (WhatsApp, Telegram, etc.). 3. What do you need from the client? Project requirements Sample data (optional) Preferred platform or integration method Budget and timeline expectations 4. Is data kept confidential? Yes. Data confidentiality is ensured, and NDAs can be signed if required. 5. Do you offer ongoing support? Yes. Monthly support plans are available and can be customized. Contact Information Name: Fatima Email: fatima.ai.services@example.com Phone: +123 456 7890</t>
+          <t>contact@Fatima.example</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>555-0100</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Test services: alpha, beta</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Variable</t>
         </is>
       </c>
     </row>

--- a/rag-data/providers/Fatima/excel/metadata.xlsx
+++ b/rag-data/providers/Fatima/excel/metadata.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Test services: alpha, beta</t>
+          <t>Test services: alpha, beta, gamma</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/rag-data/providers/Fatima/excel/metadata.xlsx
+++ b/rag-data/providers/Fatima/excel/metadata.xlsx
@@ -478,12 +478,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Test services: alpha, beta, gamma</t>
+          <t>AI Development Services – Fatima Fatima is a professional AI developer providing end-to-end AI
+solutions, including chatbots, automation apps, predictive analytics systems, and custom machine
+learning tools. Services Offered Custom Chatbot Development (RAG, LLM-Based) AI Automation
+Integrations (API-based, workflow automation) Predictive Analytics &amp; Data Modeling Fine-tuning and
+Prompt Engineering AI-powered dashboard integrations Consultation on AI architecture and
+deployment Timings &amp; Availability Fatima is available Monday to Saturday from 10 AM – 7 PM
+(GMT+5). Urgent consultations may be scheduled outside regular hours upon request. Charges Initial
+Frequently Asked Questions (FAQ) 1. How long does it take to develop an AI chatbot? Typical
+development time is 3–7 days depending on requirements such as integrations, UI, and model
+configuration. 2. Do you provide deployment services? Yes. Deployment is offered for web apps, cloud
+environments, and messaging platforms (WhatsApp, Telegram, etc.). 3. What do you need from the
+client? Project requirements Sample data (optional) Preferred platform or integration method Budget
+and timeline expectations 4. Is data kept confidential? Yes. Data confidentiality is ensured, and NDAs
+can be signed if required. 5. Do you offer ongoing support? Yes. Monthly support plans are available
+and can be customized. Contact Information Name: Fatima
+Email: fatima.ai.services@example.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Variable</t>
+          <t>See provider pricing</t>
         </is>
       </c>
     </row>

--- a/rag-data/providers/Fatima/excel/metadata.xlsx
+++ b/rag-data/providers/Fatima/excel/metadata.xlsx
@@ -478,27 +478,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AI Development Services – Fatima Fatima is a professional AI developer providing end-to-end AI
-solutions, including chatbots, automation apps, predictive analytics systems, and custom machine
-learning tools. Services Offered Custom Chatbot Development (RAG, LLM-Based) AI Automation
-Integrations (API-based, workflow automation) Predictive Analytics &amp; Data Modeling Fine-tuning and
-Prompt Engineering AI-powered dashboard integrations Consultation on AI architecture and
-deployment Timings &amp; Availability Fatima is available Monday to Saturday from 10 AM – 7 PM
-(GMT+5). Urgent consultations may be scheduled outside regular hours upon request. Charges Initial
-Frequently Asked Questions (FAQ) 1. How long does it take to develop an AI chatbot? Typical
-development time is 3–7 days depending on requirements such as integrations, UI, and model
-configuration. 2. Do you provide deployment services? Yes. Deployment is offered for web apps, cloud
-environments, and messaging platforms (WhatsApp, Telegram, etc.). 3. What do you need from the
-client? Project requirements Sample data (optional) Preferred platform or integration method Budget
-and timeline expectations 4. Is data kept confidential? Yes. Data confidentiality is ensured, and NDAs
-can be signed if required. 5. Do you offer ongoing support? Yes. Monthly support plans are available
-and can be customized. Contact Information Name: Fatima
-Email: fatima.ai.services@example.com</t>
+          <t>Test services: alpha, beta, gamma</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>See provider pricing</t>
+          <t>Variable</t>
         </is>
       </c>
     </row>
